--- a/WebRoot/static/template/import/contact.xlsx
+++ b/WebRoot/static/template/import/contact.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16110" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="16110" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>所有者</t>
   </si>
@@ -25,9 +24,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>客户</t>
-  </si>
-  <si>
     <t>部门</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
     <t>测试</t>
   </si>
   <si>
-    <t>罗晓丽1</t>
-  </si>
-  <si>
     <t>啊啊</t>
   </si>
   <si>
@@ -88,9 +81,6 @@
     <t>82623629@qq.com</t>
   </si>
   <si>
-    <t>张小飞</t>
-  </si>
-  <si>
     <t>市场活动获得</t>
   </si>
   <si>
@@ -107,19 +97,17 @@
   </si>
   <si>
     <t>82623629@qq.com1</t>
+  </si>
+  <si>
+    <t>010-82147300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,8 +135,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -169,23 +158,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -203,19 +177,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +271,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -514,6 +558,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -546,20 +591,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +634,7 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -605,150 +649,136 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3">
+        <v>18613891431</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>18613891430</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M3" s="1">
+        <v>150001</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1">
-        <v>150001</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>18613891431</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1">
-        <v>150001</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="82623629@qq.com1"/>
-    <hyperlink ref="H2" r:id="rId2" display="82623629@qq.com"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/WebRoot/static/template/import/contact.xlsx
+++ b/WebRoot/static/template/import/contact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>所有者</t>
   </si>
@@ -81,9 +81,6 @@
     <t>82623629@qq.com</t>
   </si>
   <si>
-    <t>市场活动获得</t>
-  </si>
-  <si>
     <t>北京市</t>
   </si>
   <si>
@@ -96,10 +93,17 @@
     <t>爱仕达</t>
   </si>
   <si>
-    <t>82623629@qq.com1</t>
-  </si>
-  <si>
     <t>010-82147300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易线索</t>
+  </si>
+  <si>
+    <t>投资线索</t>
+  </si>
+  <si>
+    <t>82623629@qq.com</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -595,12 +599,13 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -665,37 +670,37 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="1">
         <v>100000</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -715,35 +720,40 @@
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100000</v>
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="1">
         <v>150001</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>"交易线索,投资线索,保险投资,信托投资,信用合作,证券交易,市场活动"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
